--- a/workflow/SupportingData/Municipal-WaterRentals/data/municipal-water-rentals.xlsx
+++ b/workflow/SupportingData/Municipal-WaterRentals/data/municipal-water-rentals.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -39,9 +39,6 @@
     <t>The Data worksheet is converted into a GeoJSON file for use in web applications, using a separate TSTool command file.</t>
   </si>
   <si>
-    <t>WaterProvider</t>
-  </si>
-  <si>
     <t>Greeley, City of</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>This dataset is incomplete and is an example of what can be done to illustrate municipal to agriculatural water rentals.</t>
   </si>
   <si>
-    <t>Fort Collins, City of</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -72,7 +66,31 @@
     <t>https://citydocs.fcgov.com/?cmd=convert&amp;vid=72&amp;docid=3122542&amp;dt=AGENDA+ITEM&amp;doc_download_date=MAR-06-2018&amp;ITEM_NUMBER=07</t>
   </si>
   <si>
-    <t>HasRentalProgramWebPage</t>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>Fort Collins Utilities</t>
+  </si>
+  <si>
+    <t>Boulder, City of</t>
+  </si>
+  <si>
+    <t>https://bouldercolorado.gov/water/agricultural-and-irrigation-water-leasing</t>
+  </si>
+  <si>
+    <t>WaterProviderName</t>
+  </si>
+  <si>
+    <t>OWF_ID</t>
+  </si>
+  <si>
+    <t>FtCollins</t>
+  </si>
+  <si>
+    <t>Greeley</t>
+  </si>
+  <si>
+    <t>HasWebPage</t>
   </si>
 </sst>
 </file>
@@ -128,13 +146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,12 +449,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -444,12 +464,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -459,77 +479,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="67.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-105.25155100000001</v>
+      </c>
+      <c r="F2" s="6">
+        <v>40.027293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-105.08027199999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>40.589117999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-105.08027199999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>40.589117999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
         <v>-104.696561</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F4" s="4">
         <v>40.421771999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>